--- a/download/header3/data.xlsx
+++ b/download/header3/data.xlsx
@@ -502,7 +502,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-04-20 12:10:42 - intervals:17</t>
+          <t>2024-02-01 08:12:05 - intervals:17</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
